--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -150,7 +150,7 @@
         <color rgb="FF393939"/>
         <sz val="10.0"/>
       </rPr>
-      <t>- To have some actions or bonos on the portfolio</t>
+      <t>- To have some stocks or bonds on the portfolio</t>
     </r>
   </si>
   <si>
@@ -160,7 +160,7 @@
     <t>Mis Inversiones' section shows:
 - 'Caja de Ahorro' title and its value
 - 'Mi Portfolio' title
-- A list of the actions/bonos that the user has on the portfolio and the exact amount.</t>
+- A list of the stocks/bonds that the user has on the portfolio and the exact amount.</t>
   </si>
   <si>
     <t>TC03</t>
@@ -218,7 +218,7 @@
         <color rgb="FF393939"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve">- Check the market current values of the actions/bonos at </t>
+      <t xml:space="preserve">- Check the market current values of the stocks/bonds at </t>
     </r>
     <r>
       <rPr>
@@ -234,7 +234,7 @@
     <t>- Check content list of 'Inversiones disponibles' section</t>
   </si>
   <si>
-    <t>Inversiones disponibles' section shows the following list of avalible actions/bonos, and its current market prices by unit:
+    <t>Inversiones disponibles' section shows the following list of avalible stocks/bonds, and its current market prices by unit:
 - Ternium Argentina
 - Transportadora Gas del Norte
 - Aluar
@@ -245,20 +245,20 @@
 - BONO REPUBLICA ARGENTINA LEY LOCAL 2029 IN</t>
   </si>
   <si>
-    <t>Inversiones disponibles section shows the list of actions/bonos and its market values by unit</t>
+    <t>Inversiones disponibles section shows the list of stocks/bonds and its market values by unit</t>
   </si>
   <si>
     <t>TC04_A</t>
   </si>
   <si>
-    <t xml:space="preserve">To verify 'Inversiones Disponibles' section content is clickable and redirects the user to the details section of each action/bono </t>
+    <t xml:space="preserve">To verify 'Inversiones Disponibles' section content is clickable and redirects the user to the details section of each action/bond </t>
   </si>
   <si>
     <t>TC04 is pass</t>
   </si>
   <si>
     <t>- Click each of the items of the list at 'Inversiones disponibles' section
-- Check content of the action/bonos details section</t>
+- Check content of the action/bonds details section</t>
   </si>
   <si>
     <t>User is able to click each of the items on the list and details of that item are displayed on the right side of the screen including:
@@ -266,9 +266,9 @@
 - Action or Bono name
 - Cotizacion field with the actual market price by unit
 - Cantidad Adquirida: show the amount of that item the user already has. If user does not have any, the field is not displayed
-- Valor total: Equals to the total price of actions/bonos the user has. If user does not have any, the field is not displayed
+- Valor total: Equals to the total price of stocks/bonds the user has. If user does not have any, the field is not displayed
 - Comprar field
-- Vender field: If user does not have any action/bono on the portfolio, the field is not displayed</t>
+- Vender field: If user does not have any action/bond on the portfolio, the field is not displayed</t>
   </si>
   <si>
     <t>Inversiones disponibles items are clickable and they show the details section containing all the details as intended.</t>
@@ -277,7 +277,7 @@
     <t>GL02</t>
   </si>
   <si>
-    <t>To verify that users can buy actions and bonos</t>
+    <t>To verify that users can buy stocks and bonds</t>
   </si>
   <si>
     <t>To verify the behaviour of 'Realizar Compra' button with valid quantities</t>
@@ -287,7 +287,7 @@
   </si>
   <si>
     <t>Go to 'Inversiones disponibles' section
-Select any accion or bono from the list
+Select any stock or bond from the list
 Add a valid quantity
 Observe the 'Realizar Compra' button
 Repeat with the quantities at Test Data field</t>
@@ -321,7 +321,7 @@
 If the specified quantity is a letter or an special character, the result is as expected.</t>
   </si>
   <si>
-    <t>To verify that user can buy Ternium Actions from 'Inversiones disponibles' section</t>
+    <t>To verify that user can buy Ternium Stocks from 'Inversiones disponibles' section</t>
   </si>
   <si>
     <t>TC02 is pass</t>
@@ -338,11 +338,11 @@
   <si>
     <t>Operacion en proceso' message is displayed while loading
 'Operacion realizada' message is displayed as a success message
-'Cantidad adquirida' field is updated and shows total of actions (previous + recently aquired)
-'Valor Total' field is updated and shows the total value of the actions (previous + recently aquired)</t>
-  </si>
-  <si>
-    <t>Ternium Actions can be bought. 
+'Cantidad adquirida' field is updated and shows total of stocks (previous + recently aquired)
+'Valor Total' field is updated and shows the total value of the stocks (previous + recently aquired)</t>
+  </si>
+  <si>
+    <t>Ternium Stocks can be bought. 
 Loading and Success messages are displayed
 Cantidad Adquirida field is updated
 Valor Total field is updated</t>
@@ -351,7 +351,7 @@
     <t>TC03-A</t>
   </si>
   <si>
-    <t>To verify that after buying Ternium Actions, Mis Inversiones section is updated</t>
+    <t>To verify that after buying Ternium Stocks, Mis Inversiones section is updated</t>
   </si>
   <si>
     <t>TC03 status is PASS</t>
@@ -369,7 +369,7 @@
 Mi Portfolio section shows the Ternium action total units updated</t>
   </si>
   <si>
-    <t>To verify that user can buy Gas del Norte Actions from 'Inversiones disponibles' section</t>
+    <t>To verify that user can buy Gas del Norte Stocks from 'Inversiones disponibles' section</t>
   </si>
   <si>
     <t>Go to 'Inversiones disponibles' section
@@ -378,7 +378,7 @@
 Click Comprar</t>
   </si>
   <si>
-    <t>Gas del Norte Actions can be bought. 
+    <t>Gas del Norte Stocks can be bought. 
 Loading and Success messages are displayed
 Cantidad Adquirida field is updated
 Valor Total field is updated</t>
@@ -387,7 +387,7 @@
     <t>TC04-A</t>
   </si>
   <si>
-    <t>To verify that after buying  Gas del Norte Actions, Mis Inversiones section is updated</t>
+    <t>To verify that after buying  Gas del Norte Stocks, Mis Inversiones section is updated</t>
   </si>
   <si>
     <t>TC04 status is PASS</t>
@@ -401,7 +401,7 @@
     <t>TC05</t>
   </si>
   <si>
-    <t>To verify that user can buy Aluar Actions from 'Inversiones disponibles' section</t>
+    <t>To verify that user can buy Aluar Stocks from 'Inversiones disponibles' section</t>
   </si>
   <si>
     <t>Go to 'Inversiones disponibles' section
@@ -410,7 +410,7 @@
 Click Comprar</t>
   </si>
   <si>
-    <t>Aluar Actions can be bought. 
+    <t>Aluar Stocks can be bought. 
 Loading and Success messages are displayed
 Cantidad Adquirida field is updated
 Valor Total field is updated</t>
@@ -419,7 +419,7 @@
     <t>TC05-A</t>
   </si>
   <si>
-    <t>To verify that after buying  Aluar Actions, Mis Inversiones section is updated</t>
+    <t>To verify that after buying  Aluar Stocks, Mis Inversiones section is updated</t>
   </si>
   <si>
     <t>TC05 status is PASS</t>
@@ -545,28 +545,28 @@
     <t>GL03</t>
   </si>
   <si>
-    <t>To verify that users can sell actions and bonos</t>
+    <t>To verify that users can sell stocks and bonds</t>
   </si>
   <si>
     <t>To verify the behaviour of 'Realizar Venta' button with valid quantities</t>
   </si>
   <si>
-    <t>The user already has actions or bonos on the portfolio</t>
+    <t>The user already has stocks or bonds on the portfolio</t>
   </si>
   <si>
     <t>Go to 'Mis Inversiones' section
-Select any accion or bono from the list
+Select any stock or bond from the list
 Add a valid quantity on 'Vender' field
 Observe the 'Realizar Venta' button
 Repeat with the quantities at Test Data field</t>
   </si>
   <si>
-    <t>Vender' field is displayed if the user already has that action/bono on the portfolio
+    <t>Vender' field is displayed if the user already has that action/bond on the portfolio
 'Realizar Venta' button is displayed if the specified Quantity is valid (positive numbers)</t>
   </si>
   <si>
     <t>Go to 'Mis Inversiones' section
-Select any accion or bono from the list
+Select any stock or bond from the list
 Add an invalid quantity on 'Vender' field
 Observe the 'Realizar Venta' button
 Repeat with the quantities and characters at Test Data field</t>
@@ -576,10 +576,10 @@
 'Realizar Venta' button is not displayed and the character cannot be added if it is not a number (letters &amp; special characters)</t>
   </si>
   <si>
-    <t>To verify that user can sell Ternium Actions from 'Mi Portfolio' section</t>
-  </si>
-  <si>
-    <t>The user already has Ternium Actions on the portfolio</t>
+    <t>To verify that user can sell Ternium Stocks from 'Mi Portfolio' section</t>
+  </si>
+  <si>
+    <t>The user already has Ternium Stocks on the portfolio</t>
   </si>
   <si>
     <t>Go to 'Mis Inversiones' section
@@ -589,13 +589,13 @@
 Repeat with the quantities at Test Data field</t>
   </si>
   <si>
-    <t>To verify that after selling Ternium Actions, Mis Inversiones section is updated</t>
-  </si>
-  <si>
-    <t>To verify that user can sell Transportadora Gas del Norte Actions from 'Mi Portfolio' section</t>
-  </si>
-  <si>
-    <t>The user already has Transportadora Gas del Norte Actions on the portfolio</t>
+    <t>To verify that after selling Ternium Stocks, Mis Inversiones section is updated</t>
+  </si>
+  <si>
+    <t>To verify that user can sell Transportadora Gas del Norte Stocks from 'Mi Portfolio' section</t>
+  </si>
+  <si>
+    <t>The user already has Transportadora Gas del Norte Stocks on the portfolio</t>
   </si>
   <si>
     <t>Go to 'Mis Inversiones' section
@@ -611,7 +611,7 @@
 Valor Total field is updated</t>
   </si>
   <si>
-    <t>To verify that after selling Transportadora Gas del Norte Actions, Mis Inversiones section is updated</t>
+    <t>To verify that after selling Transportadora Gas del Norte Stocks, Mis Inversiones section is updated</t>
   </si>
   <si>
     <t>Go to 'Mis Inversiones' section
@@ -623,10 +623,10 @@
 Mi Portfolio section shows the Transportadora Gas del Norte action total units updated</t>
   </si>
   <si>
-    <t>To verify that user can sell Aluar Actions from 'Mi Portfolio' section</t>
-  </si>
-  <si>
-    <t>The user already has Aluar Actions on the portfolio</t>
+    <t>To verify that user can sell Aluar Stocks from 'Mi Portfolio' section</t>
+  </si>
+  <si>
+    <t>The user already has Aluar Stocks on the portfolio</t>
   </si>
   <si>
     <t>Go to 'Mis Inversiones' section
@@ -636,13 +636,13 @@
 Repeat with the quantities at Test Data field</t>
   </si>
   <si>
-    <t>Aluar Actions can be sell. 
+    <t>Aluar Stocks can be sell. 
 Loading and Success messages are displayed
 Cantidad Adquirida field is updated
 Valor Total field is updated</t>
   </si>
   <si>
-    <t>To verify that after selling Aluar Actions, Mis Inversiones section is updated</t>
+    <t>To verify that after selling Aluar Stocks, Mis Inversiones section is updated</t>
   </si>
   <si>
     <t>Go to 'Mis Inversiones' section
@@ -650,7 +650,7 @@
 Check 'Mi Portfolio' &gt; Aluar and check the total units</t>
   </si>
   <si>
-    <t>To verify that user can sell Bocan bonos from 'Mi Portfolio' section</t>
+    <t>To verify that user can sell Bocan bonds from 'Mi Portfolio' section</t>
   </si>
   <si>
     <t>The user already has Bocan Bonos on the portfolio</t>
